--- a/data/trans_camb/P42-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P42-Habitat-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>7.99803377308187</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.132246144674913</v>
+        <v>6.132246144674925</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.73199961150935</v>
+        <v>6.68041440004984</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.605033366558406</v>
+        <v>3.394497330438587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.493543055378469</v>
+        <v>1.587938471172548</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.31375584139105</v>
+        <v>15.21893449986144</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.39489178933918</v>
+        <v>11.90656225215239</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.62857100715969</v>
+        <v>10.48052370475635</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>0.1071377195852965</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.08214454783716645</v>
+        <v>0.0821445478371666</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.08772883868707307</v>
+        <v>0.08606401782390635</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04526739477652834</v>
+        <v>0.04370399599992413</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0198211853359922</v>
+        <v>0.02128601695100102</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2115820325363146</v>
+        <v>0.2108929197982712</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1714503236938399</v>
+        <v>0.1644865309642061</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1478555245078843</v>
+        <v>0.1448825643377583</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.042188169583235</v>
+        <v>3.692474605490843</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.143901540357499</v>
+        <v>7.52314768336314</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.716616474386485</v>
+        <v>2.200028944188179</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.43678158204163</v>
+        <v>10.50298295729799</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.85249880768016</v>
+        <v>14.26396259101288</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.45320641399819</v>
+        <v>10.05776096098387</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.0375648597676437</v>
+        <v>0.04649118969062731</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.08866292426016173</v>
+        <v>0.09335806288723021</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03391151152578054</v>
+        <v>0.03001117094760161</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1375429081352233</v>
+        <v>0.1391527353086677</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1844011027081777</v>
+        <v>0.1904639817482582</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1352356117722078</v>
+        <v>0.1333186795471967</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.157885040219251</v>
+        <v>3.196486027138772</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.0160581120756163</v>
+        <v>-0.3414350788157204</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.146623720548132</v>
+        <v>1.22328891161586</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.15776044476169</v>
+        <v>10.39820969636388</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.390142381119555</v>
+        <v>7.398587759590217</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.723109815142214</v>
+        <v>9.667569010514081</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.03724047457493594</v>
+        <v>0.03741957411923592</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0002357996681341466</v>
+        <v>-0.003818829752843078</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01413435847832389</v>
+        <v>0.0146879124306176</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1254667053377972</v>
+        <v>0.1287455719256465</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.09136315443306242</v>
+        <v>0.0913660974104616</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1207365524561352</v>
+        <v>0.1191555874708824</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>8.842811890330736</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.096212512932804</v>
+        <v>1.096212512932793</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.251512268158828</v>
+        <v>4.835932074794562</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.818052584111931</v>
+        <v>5.848470351313622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.775922887422004</v>
+        <v>-2.487036286172239</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.29679922625347</v>
+        <v>11.26393089589788</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.88723112360523</v>
+        <v>12.17883428339639</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.698637255896494</v>
+        <v>4.549362533523739</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>0.1101257483788373</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.01365190449216439</v>
+        <v>0.01365190449216426</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0649919910734543</v>
+        <v>0.05872570628118087</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.0707775751646631</v>
+        <v>0.07108042975134832</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0340615679279743</v>
+        <v>-0.03060680147932525</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.143768123608871</v>
+        <v>0.1438466780945246</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1531249399481633</v>
+        <v>0.1550470809018541</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.06002292855182319</v>
+        <v>0.05772185841957794</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.221573796368764</v>
+        <v>6.180536962845001</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.192183244941917</v>
+        <v>6.307341541587719</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.541460463996832</v>
+        <v>2.704766475822672</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.816312146973996</v>
+        <v>9.929906764812841</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.969676909246985</v>
+        <v>9.806409707104107</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.727921358765086</v>
+        <v>6.556352651505956</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.0771198306138305</v>
+        <v>0.07682353396567514</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.07724656775636035</v>
+        <v>0.07855173382044754</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.03145657623317433</v>
+        <v>0.03379639756229458</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1254245074746585</v>
+        <v>0.1269877899203487</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1277311509835919</v>
+        <v>0.1257410537191013</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.08627235073084658</v>
+        <v>0.08399514291707633</v>
       </c>
     </row>
     <row r="34">
